--- a/Redwood Solution Workbook.xlsx
+++ b/Redwood Solution Workbook.xlsx
@@ -13,14 +13,14 @@
   </bookViews>
   <sheets>
     <sheet name="Team Members" sheetId="7" r:id="rId1"/>
-    <sheet name="Data Warehouse" sheetId="1" r:id="rId2"/>
+    <sheet name="Data Mart" sheetId="10" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="115">
   <si>
     <t>Object Name</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Dimension Key Column</t>
   </si>
   <si>
-    <t>varchar(20)</t>
-  </si>
-  <si>
     <t>datetime</t>
   </si>
   <si>
@@ -67,33 +64,12 @@
     <t>Contact Phone</t>
   </si>
   <si>
-    <t>Normal Hours</t>
-  </si>
-  <si>
-    <t>Normal Workdays</t>
-  </si>
-  <si>
-    <t>Mon - Fri</t>
-  </si>
-  <si>
-    <t>555-5676</t>
-  </si>
-  <si>
-    <t>555-2567</t>
-  </si>
-  <si>
-    <t>555-2243</t>
-  </si>
-  <si>
     <t>Dimension Column</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
-    <t>nvarchar(50)</t>
-  </si>
-  <si>
     <t>na</t>
   </si>
   <si>
@@ -103,9 +79,6 @@
     <t>Jeff Maybach</t>
   </si>
   <si>
-    <t>Emilt Sacks</t>
-  </si>
-  <si>
     <t>Danny Yeager</t>
   </si>
   <si>
@@ -115,57 +88,12 @@
     <t>DWRedwood</t>
   </si>
   <si>
-    <t>Redwood.dbo.DOM</t>
-  </si>
-  <si>
-    <t>Redwood.dbo.DOM.dbo.Listing_ID</t>
-  </si>
-  <si>
-    <t>Redwood.dbo.DOM.dbo.Agent_ID</t>
-  </si>
-  <si>
-    <t>Redwood.dbo.DOM.dbo.Property</t>
-  </si>
-  <si>
-    <t>Redwood.dbo.DOM.date</t>
-  </si>
-  <si>
     <t>DWRedwoodDOM.dbo.DimListing</t>
   </si>
   <si>
     <t>Dimension Table</t>
   </si>
   <si>
-    <t>Redwood.dbo.listing</t>
-  </si>
-  <si>
-    <t>DWRedwoodDOM.dbo.DimListing.AskingPrice</t>
-  </si>
-  <si>
-    <t>DWRedwoodDOM.dbo.DimListing.ListingKey</t>
-  </si>
-  <si>
-    <t>Redwood.dbo.Listing.Listing_ID</t>
-  </si>
-  <si>
-    <t>DWRedwoodDOM.dbo.DimProperty.PropertyKey</t>
-  </si>
-  <si>
-    <t>Redwood.dbo.Property.Property_ID</t>
-  </si>
-  <si>
-    <t>DWRedwoodDOM.dbo.DimListingAgent.ListingAgentKey</t>
-  </si>
-  <si>
-    <t>Redwood.dbo.ListingAgent.ListingAgent_ID</t>
-  </si>
-  <si>
-    <t>DWRedwoodDOM.dbo.DimSalesStatus.SalesStatusKey</t>
-  </si>
-  <si>
-    <t>Redwood.dbo.SalesStatus.SalesStatus_ID</t>
-  </si>
-  <si>
     <t>Redwood.dbo.Listing.AskingPrice</t>
   </si>
   <si>
@@ -175,21 +103,12 @@
     <t>DWRedwoodDOM.dbo.DimAgent</t>
   </si>
   <si>
-    <t>DWRedwoodDOM.dbo.DimAgent.AgentKey</t>
-  </si>
-  <si>
-    <t>Redwood.dbo.Agent.Agent_ID</t>
-  </si>
-  <si>
     <t>DWRedwoodDOM.dbo.DimAgent.HireDate</t>
   </si>
   <si>
     <t>Redwood.dbo.Agent.HireDate</t>
   </si>
   <si>
-    <t>not null</t>
-  </si>
-  <si>
     <t>DWRedwoodDOM.dbo.DimAgent.LicenseDate</t>
   </si>
   <si>
@@ -208,12 +127,6 @@
     <t>Redwood.dbo.Property</t>
   </si>
   <si>
-    <t>DWRedwoodDOM.dbo.DimOwner.OwnerKey</t>
-  </si>
-  <si>
-    <t>Redwood.dbo.Property.Owner_ID</t>
-  </si>
-  <si>
     <t>DWRedwoodDOM.dbo.DimProperty.City</t>
   </si>
   <si>
@@ -292,49 +205,166 @@
     <t>DWRedwoodDOM.dbo.FactDOM</t>
   </si>
   <si>
-    <t>DWRedwoodDOM.dbo.Date</t>
-  </si>
-  <si>
-    <t>DWRedwoodDOM.dbo.ListingKey</t>
-  </si>
-  <si>
-    <t>DWRedwoodDOM.dbo.AgentKey</t>
-  </si>
-  <si>
-    <t>DWRedwoodDOM.dbo.PropertyKey</t>
-  </si>
-  <si>
     <t>DWRedwoodDOM.dbo.DimDate</t>
   </si>
   <si>
-    <t>Redwood.dbo.Date</t>
-  </si>
-  <si>
-    <t>DWRedwoodDOM.dbo.DimDate.DateKey</t>
-  </si>
-  <si>
-    <t>DWRedwoodDOM.dbo.DimDate.Year</t>
-  </si>
-  <si>
-    <t>DWRedwoodDOM.dbo.DimDate.Qtr</t>
-  </si>
-  <si>
-    <t>DWRedwoodDOM.dbo.DimDate.Month</t>
-  </si>
-  <si>
-    <t>Redwood.dbo.Date.dbo.Date_ID</t>
-  </si>
-  <si>
-    <t>Redwood.dbo.Date.Year</t>
-  </si>
-  <si>
-    <t>Redwood.dbo.Date.Qtr</t>
-  </si>
-  <si>
-    <t>Redwood.dbo.Date.Month</t>
-  </si>
-  <si>
-    <t>varchar(15)</t>
+    <t>Redwood.dbo.Listing</t>
+  </si>
+  <si>
+    <t>Redwood.dbo.Listing.BeginListDate</t>
+  </si>
+  <si>
+    <t>DWRedwoodDOM.dbo.BeginListDate</t>
+  </si>
+  <si>
+    <t>Date Column</t>
+  </si>
+  <si>
+    <t>DWRedwoodDOM.dbo.EndListDate</t>
+  </si>
+  <si>
+    <t>Redwood.dbo.Listing.EndListDate</t>
+  </si>
+  <si>
+    <t>Redwood.dbo.Listing.ListingID</t>
+  </si>
+  <si>
+    <t>Redwood.dbo.Agent.AgentID</t>
+  </si>
+  <si>
+    <t>Redwood.dbo.Property.PropertyID</t>
+  </si>
+  <si>
+    <t>DimensionColumn</t>
+  </si>
+  <si>
+    <t>DWRedwood.dbo.DimDate.Year</t>
+  </si>
+  <si>
+    <t>DWRedwood.dbo.DimDate.Month</t>
+  </si>
+  <si>
+    <t>DWRedwood.dbo.DimDate.Quarter</t>
+  </si>
+  <si>
+    <t>DWRedood.dbo.DimDate.DayofWeek</t>
+  </si>
+  <si>
+    <t>DWRedood.dbo.DimDate.DayofMonth</t>
+  </si>
+  <si>
+    <t>DWRedood.dbo.DimDate.Season</t>
+  </si>
+  <si>
+    <t>DWRedood.dbo.DimDate.HolidayFlag</t>
+  </si>
+  <si>
+    <t>DWRedwood.dbo.DimDate.Date</t>
+  </si>
+  <si>
+    <t>Redwood.dbo.Agent.FirstName</t>
+  </si>
+  <si>
+    <t>DWRedwoodDOM.dbo.DimAgent.LastName</t>
+  </si>
+  <si>
+    <t>DWRedwoodDOM.dbo.DimAgent.FirstName</t>
+  </si>
+  <si>
+    <t>Redwood.dbo.Agent.LastName</t>
+  </si>
+  <si>
+    <t>DWRedwood.dbo.DimDate.DateKey</t>
+  </si>
+  <si>
+    <t>Generated</t>
+  </si>
+  <si>
+    <t>DWRedwoodDOM.dbo.Listing.AskingPrice</t>
+  </si>
+  <si>
+    <t>DWRedwoodDOM.dbo.DimListing.SaleStatus</t>
+  </si>
+  <si>
+    <t>Redwood.dbo.SaleStatus.SaleStatus</t>
+  </si>
+  <si>
+    <t>DWRedwoodDOM.dbo.DimListing.SaleStatusID</t>
+  </si>
+  <si>
+    <t>Redwood.dbo.SaleStatus.SaleStatusID</t>
+  </si>
+  <si>
+    <t>nvarchar(10)</t>
+  </si>
+  <si>
+    <t>DWRedwood.dbo.DimListing.ListingKey</t>
+  </si>
+  <si>
+    <t>DWRedwood.dbo.Dim.Agent.AgentKey</t>
+  </si>
+  <si>
+    <t>DWRedwood.dbo.DimProperty.PropertyKey</t>
+  </si>
+  <si>
+    <t>303-520-5503</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Contact Time</t>
+  </si>
+  <si>
+    <t>anytime</t>
+  </si>
+  <si>
+    <t>Emily Sacks</t>
+  </si>
+  <si>
+    <t>804-617-8801</t>
+  </si>
+  <si>
+    <t>720-833-1513</t>
+  </si>
+  <si>
+    <t>DWRedwoodDOM.dbo.ListingKey(SK)</t>
+  </si>
+  <si>
+    <t>DWRedwoodDOM.dbo.AgentKey(SK)</t>
+  </si>
+  <si>
+    <t>DWRedwoodDOM.dbo.DateKey(SK)</t>
+  </si>
+  <si>
+    <t>DWRedwoodDOM.dbo.PropertyKey(SK)</t>
+  </si>
+  <si>
+    <t>DWRedwoodDOM.dbo.Dim.AgentKey(SK)</t>
+  </si>
+  <si>
+    <t>DWRedwoodDOM.dbo.DimAgentID(AK)</t>
+  </si>
+  <si>
+    <t>DWRedwoodDOM.dbo.Dim.PropertyKey(SK)</t>
+  </si>
+  <si>
+    <t>DWRedwoodDOM.dbo.DimProperty.PropertyID(AK)</t>
+  </si>
+  <si>
+    <t>DWRedwoodDOM.dbo.Dim.ListingKey(SK)</t>
+  </si>
+  <si>
+    <t>DWRedwoodDOM.dbo.DimListing.ListingID(AK)</t>
+  </si>
+  <si>
+    <t>DWRedwood.dbo.DimDate.DateKey(SK)</t>
   </si>
 </sst>
 </file>
@@ -443,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -455,6 +485,13 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -793,10 +830,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -806,60 +843,72 @@
     <col min="4" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>97</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="3">
-        <v>8</v>
+        <v>95</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>98</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="4">
-        <v>8</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="B4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="5">
-        <v>8</v>
+        <v>103</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>17</v>
+        <v>98</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -868,25 +917,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A3:E39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9824F74C-3390-4409-9183-818E4CC39F32}">
+  <dimension ref="A3:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E47"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="54.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:5" ht="18.75">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -908,13 +957,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>7</v>
@@ -925,13 +974,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="7" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>6</v>
@@ -942,64 +991,64 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="8" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="8" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>32</v>
+        <v>93</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="1:5" s="11" customFormat="1">
+      <c r="A9" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="C9" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="8" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>9</v>
@@ -1008,497 +1057,667 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="14.45" customHeight="1">
-      <c r="A11" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>6</v>
+    <row r="11" spans="1:5">
+      <c r="A11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="8" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="8" t="s">
-        <v>55</v>
+      <c r="A13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="11" customFormat="1">
+      <c r="A14" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>6</v>
+      <c r="A15" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="11" customFormat="1">
+      <c r="A16" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="11" customFormat="1">
       <c r="A18" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="E18" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" s="11" customFormat="1">
+      <c r="A19" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="11" customFormat="1">
+      <c r="A20" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="7" t="s">
+      <c r="A21" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E21" s="7" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="11" customFormat="1">
+      <c r="A22" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>10</v>
+        <v>111</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="15" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>21</v>
+        <v>35</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="15" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>55</v>
+      <c r="E25" s="15" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>21</v>
+        <v>37</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>55</v>
+        <v>9</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>6</v>
+      <c r="A27" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>10</v>
+        <v>38</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="8" t="s">
-        <v>55</v>
+      <c r="E28" s="15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>10</v>
+        <v>40</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E29" s="8" t="s">
-        <v>55</v>
+      <c r="E29" s="15" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>10</v>
+        <v>41</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E30" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>10</v>
+        <v>42</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E31" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>10</v>
+        <v>43</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>55</v>
+        <v>59</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="11" customFormat="1">
+      <c r="A35" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="14.45" customHeight="1">
+      <c r="A36" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B33" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="8" t="s">
+      <c r="D36" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="11" customFormat="1">
+      <c r="A38" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="14.45" customHeight="1">
-      <c r="A34" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="8" t="s">
+      <c r="B48" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B35" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>55</v>
+      <c r="B49" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
